--- a/data_zakat.xlsx
+++ b/data_zakat.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,174 @@
         <v>45742</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ahmad</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Zakat Fitrah</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Budi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Zakat Mal</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ahmad</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Zakat Fitrah</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Budi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Zakat Mal</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ahmad</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Zakat Fitrah</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Budi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Zakat Mal</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ahmad</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Zakat Fitrah</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>23</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Budi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Zakat Mal</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_zakat.xlsx
+++ b/data_zakat.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,20 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>aidil</t>
+          <t>Aidil Ilham Werfete</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>zakat fitrah</t>
+          <t>Zakat Fitrah</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>3000000</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>45742</v>
@@ -487,11 +487,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ahmad</t>
+          <t>Imanudin Wijaya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,16 +503,16 @@
         <v>500000</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45741</v>
+        <v>45742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Budi</t>
+          <t>Hafidh Tazakka</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -521,135 +521,9 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2000000</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45742</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>18</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ahmad</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Zakat Fitrah</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>500000</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45741</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Budi</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Zakat Mal</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45742</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ahmad</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Zakat Fitrah</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>500000</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>45741</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>21</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Budi</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Zakat Mal</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>45742</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>22</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ahmad</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Zakat Fitrah</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>500000</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>45741</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>23</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Budi</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Zakat Mal</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="E10" s="2" t="n">
         <v>45742</v>
       </c>
     </row>
